--- a/src/main/resources/parking_lot_data.xlsx
+++ b/src/main/resources/parking_lot_data.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/durgaprasadsahoo/Desktop/Saumya/Labs/ADS/ParkingLotManagement/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11905D6E-DEF0-C444-BF51-AAB5FE38B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA94EE-4DCA-A643-AB18-D13EB1E9772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parking Slots" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Slot Number</t>
   </si>
@@ -40,167 +40,245 @@
     <t>CAR000</t>
   </si>
   <si>
-    <t>2025-03-10T08:00</t>
+    <t>2025-03-10 08:00</t>
   </si>
   <si>
     <t>CAR001</t>
   </si>
   <si>
-    <t>2025-03-10T08:30</t>
+    <t>2025-03-10 08:30</t>
   </si>
   <si>
     <t>CAR002</t>
   </si>
   <si>
-    <t>2025-03-10T09:00</t>
+    <t>2025-03-10 09:00</t>
   </si>
   <si>
     <t>CAR003</t>
   </si>
   <si>
-    <t>2025-03-10T09:30</t>
+    <t>2025-03-10 09:30</t>
   </si>
   <si>
     <t>CAR004</t>
   </si>
   <si>
-    <t>2025-03-10T10:00</t>
+    <t>2025-03-10 10:00</t>
   </si>
   <si>
     <t>CAR005</t>
   </si>
   <si>
-    <t>2025-03-10T10:30</t>
+    <t>2025-03-10 10:30</t>
   </si>
   <si>
     <t>CAR006</t>
   </si>
   <si>
-    <t>2025-03-10T11:00</t>
+    <t>2025-03-10 11:00</t>
   </si>
   <si>
     <t>CAR007</t>
   </si>
   <si>
-    <t>2025-03-10T11:30</t>
+    <t>2025-03-10 11:30</t>
   </si>
   <si>
     <t>CAR008</t>
   </si>
   <si>
-    <t>2025-03-10T12:00</t>
+    <t>2025-03-10 12:00</t>
   </si>
   <si>
     <t>CAR009</t>
   </si>
   <si>
-    <t>2025-03-10T12:30</t>
+    <t>2025-03-10 12:30</t>
   </si>
   <si>
     <t>CAR010</t>
   </si>
   <si>
-    <t>2025-03-10T13:00</t>
+    <t>2025-03-10 13:00</t>
   </si>
   <si>
     <t>CAR011</t>
   </si>
   <si>
-    <t>2025-03-10T13:30</t>
+    <t>2025-03-10 13:30</t>
   </si>
   <si>
     <t>CAR012</t>
   </si>
   <si>
-    <t>2025-03-10T14:00</t>
+    <t>2025-03-10 14:00</t>
   </si>
   <si>
     <t>CAR013</t>
   </si>
   <si>
-    <t>2025-03-10T14:30</t>
+    <t>2025-03-10 14:30</t>
   </si>
   <si>
     <t>CAR014</t>
   </si>
   <si>
-    <t>2025-03-10T15:00</t>
+    <t>2025-03-10 15:00</t>
   </si>
   <si>
     <t>CAR015</t>
   </si>
   <si>
-    <t>2025-03-10T15:30</t>
+    <t>2025-03-10 15:30</t>
   </si>
   <si>
     <t>CAR016</t>
   </si>
   <si>
-    <t>2025-03-10T16:00</t>
+    <t>2025-03-10 16:00</t>
   </si>
   <si>
     <t>CAR017</t>
   </si>
   <si>
-    <t>2025-03-10T16:30</t>
+    <t>2025-03-10 16:30</t>
   </si>
   <si>
     <t>CAR018</t>
   </si>
   <si>
-    <t>2025-03-10T17:00</t>
+    <t>2025-03-10 17:00</t>
   </si>
   <si>
     <t>CAR019</t>
   </si>
   <si>
-    <t>2025-03-10T17:30</t>
+    <t>2025-03-10 17:30</t>
   </si>
   <si>
     <t>CAR020</t>
   </si>
   <si>
-    <t>2025-03-10T18:00</t>
+    <t>2025-03-10 18:00</t>
   </si>
   <si>
     <t>CAR021</t>
   </si>
   <si>
-    <t>2025-03-10T18:30</t>
+    <t>2025-03-10 18:30</t>
   </si>
   <si>
     <t>CAR022</t>
   </si>
   <si>
-    <t>2025-03-10T19:00</t>
+    <t>2025-03-10 19:00</t>
   </si>
   <si>
     <t>CAR023</t>
   </si>
   <si>
-    <t>2025-03-10T19:30</t>
+    <t>2025-03-10 19:30</t>
   </si>
   <si>
     <t>CAR024</t>
   </si>
   <si>
-    <t>2025-03-10T20:00</t>
-  </si>
-  <si>
-    <t/>
+    <t>2025-03-10 20:00</t>
+  </si>
+  <si>
+    <t>2025-03-10 20:30</t>
+  </si>
+  <si>
+    <t>2025-03-10 21:00</t>
+  </si>
+  <si>
+    <t>2025-03-10 21:30</t>
+  </si>
+  <si>
+    <t>2025-03-10 22:00</t>
+  </si>
+  <si>
+    <t>2025-03-10 22:30</t>
+  </si>
+  <si>
+    <t>2025-03-10 23:00</t>
+  </si>
+  <si>
+    <t>2025-03-10 23:30</t>
+  </si>
+  <si>
+    <t>2025-03-11 00:00</t>
+  </si>
+  <si>
+    <t>2025-03-11 00:30</t>
+  </si>
+  <si>
+    <t>2025-03-11 01:00</t>
+  </si>
+  <si>
+    <t>2025-03-11 01:30</t>
+  </si>
+  <si>
+    <t>2025-03-11 02:00</t>
+  </si>
+  <si>
+    <t>2025-03-11 02:30</t>
+  </si>
+  <si>
+    <t>2025-03-11 03:00</t>
+  </si>
+  <si>
+    <t>2025-03-11 03:30</t>
+  </si>
+  <si>
+    <t>2025-03-11 04:00</t>
+  </si>
+  <si>
+    <t>2025-03-11 04:30</t>
+  </si>
+  <si>
+    <t>2025-03-11 05:00</t>
+  </si>
+  <si>
+    <t>2025-03-11 05:30</t>
+  </si>
+  <si>
+    <t>2025-03-11 06:00</t>
+  </si>
+  <si>
+    <t>2025-03-11 06:30</t>
+  </si>
+  <si>
+    <t>2025-03-11 07:00</t>
+  </si>
+  <si>
+    <t>2025-03-11 07:30</t>
+  </si>
+  <si>
+    <t>2025-03-11 08:00</t>
+  </si>
+  <si>
+    <t>2025-03-11 08:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -219,18 +297,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -253,44 +349,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -317,32 +413,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -369,24 +447,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,162 +458,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -561,29 +625,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1016,9 +1078,6 @@
       <c r="A27">
         <v>135</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
       <c r="C27" t="s">
         <v>55</v>
       </c>
@@ -1033,28 +1092,22 @@
       <c r="A28">
         <v>140</v>
       </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>145</v>
       </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1067,11 +1120,8 @@
       <c r="A30">
         <v>150</v>
       </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -1084,11 +1134,8 @@
       <c r="A31">
         <v>155</v>
       </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -1101,11 +1148,8 @@
       <c r="A32">
         <v>160</v>
       </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -1118,11 +1162,8 @@
       <c r="A33">
         <v>165</v>
       </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -1135,11 +1176,8 @@
       <c r="A34">
         <v>170</v>
       </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -1152,11 +1190,8 @@
       <c r="A35">
         <v>175</v>
       </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -1169,11 +1204,8 @@
       <c r="A36">
         <v>180</v>
       </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1186,11 +1218,8 @@
       <c r="A37">
         <v>185</v>
       </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -1203,11 +1232,8 @@
       <c r="A38">
         <v>190</v>
       </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1220,11 +1246,8 @@
       <c r="A39">
         <v>195</v>
       </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -1237,11 +1260,8 @@
       <c r="A40">
         <v>200</v>
       </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -1254,11 +1274,8 @@
       <c r="A41">
         <v>205</v>
       </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -1271,11 +1288,8 @@
       <c r="A42">
         <v>210</v>
       </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -1288,11 +1302,8 @@
       <c r="A43">
         <v>215</v>
       </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -1305,11 +1316,8 @@
       <c r="A44">
         <v>220</v>
       </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -1322,11 +1330,8 @@
       <c r="A45">
         <v>225</v>
       </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -1339,11 +1344,8 @@
       <c r="A46">
         <v>230</v>
       </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -1356,11 +1358,8 @@
       <c r="A47">
         <v>235</v>
       </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -1373,11 +1372,8 @@
       <c r="A48">
         <v>240</v>
       </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -1390,11 +1386,8 @@
       <c r="A49">
         <v>245</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -1407,11 +1400,8 @@
       <c r="A50">
         <v>250</v>
       </c>
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -1424,11 +1414,8 @@
       <c r="A51">
         <v>255</v>
       </c>
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -1438,6 +1425,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>